--- a/data/america-do-sul/copa-libertadores/2024.xlsx
+++ b/data/america-do-sul/copa-libertadores/2024.xlsx
@@ -948,7 +948,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1041,7 +1041,11 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Arena MRV (Belo Horizonte)</t>
@@ -1238,7 +1242,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1317,10 +1321,14 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Rio de Janeiro)</t>
+          <t>Maracanã (Rio de Janeiro)</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1504,7 +1512,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1664,8 +1672,14 @@
         <v>1</v>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Estádio Monumental (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>84567</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1857,19 +1871,9 @@
       <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Anderson Daronco (Bra)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>46788</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -2058,7 +2062,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2207,10 +2211,22 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>38734</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>14/08/2024</t>
@@ -2265,10 +2281,22 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Campeón del Siglo (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>40000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32235</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>14/08/2024</t>
@@ -2533,10 +2561,14 @@
       <c r="G31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Porto Alegre)</t>
+          <t>Arena do Grêmio (Porto Alegre)</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2669,7 +2701,11 @@
       <c r="G33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Estadio Tigo La Huerta (Assunção)</t>
@@ -2805,8 +2841,16 @@
       <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Estádio Banco Guayaquil (Quito)</t>
+        </is>
+      </c>
       <c r="J35" t="n">
         <v>12000</v>
       </c>
@@ -2937,10 +2981,14 @@
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Alarcon J. (Per)</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Guayaquil)</t>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -3003,10 +3051,22 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>45000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35009</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>29/05/2024</t>
@@ -3112,7 +3172,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3271,9 +3331,19 @@
       <c r="G42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>40502</v>
+      </c>
       <c r="K42" t="n">
         <v>23107</v>
       </c>
@@ -3331,10 +3401,22 @@
       <c r="G43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Merlos A. (Arg)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>41143</v>
+      </c>
+      <c r="K43" t="n">
+        <v>20757</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>28/05/2024</t>
@@ -3529,10 +3611,22 @@
       <c r="G46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>46788</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16189</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>28/05/2024</t>
@@ -3587,10 +3681,22 @@
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>41575</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12340</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>28/05/2024</t>
@@ -3715,10 +3821,22 @@
       <c r="G49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>47964</v>
+      </c>
+      <c r="K49" t="n">
+        <v>17084</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>16/05/2024</t>
@@ -3754,7 +3872,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3843,10 +3961,22 @@
       <c r="G51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>78838</v>
+      </c>
+      <c r="K51" t="n">
+        <v>42232</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>16/05/2024</t>
@@ -3902,7 +4032,11 @@
         <v>1</v>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Rosário)</t>
+        </is>
+      </c>
       <c r="J52" t="n">
         <v>46955</v>
       </c>
@@ -4943,11 +5077,7 @@
       <c r="G67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Gonzalez F. (Chi)</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>Estádio Pedro Bidegain (Buenos Aires)</t>
@@ -5013,10 +5143,14 @@
       <c r="G68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Perez Y. (Arg)</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Bogotá)</t>
+          <t>Estadio El Campín (Bogotá)</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -5140,7 +5274,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5359,10 +5493,22 @@
       <c r="G73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>80093</v>
+      </c>
+      <c r="K73" t="n">
+        <v>59000</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>07/05/2024</t>
@@ -5417,10 +5563,14 @@
       <c r="G74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (San Cristóbal)</t>
+          <t>Estadio Polideportivo de Pueblo Nuevo (San Cristóbal)</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -5752,7 +5902,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5761,10 +5911,22 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Benitez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>59283</v>
+      </c>
+      <c r="K79" t="n">
+        <v>20581</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>25/04/2024</t>
@@ -6169,7 +6331,11 @@
       <c r="G85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>Estadio Defensores del Chaco (Assunção)</t>
@@ -6375,10 +6541,22 @@
       <c r="G88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>R. Abatti Abel (Bra)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>25954</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>24/04/2024</t>
@@ -6853,10 +7031,22 @@
       <c r="G95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>43713</v>
+      </c>
+      <c r="K95" t="n">
+        <v>28365</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>11/04/2024</t>
@@ -7051,10 +7241,22 @@
       <c r="G98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>41575</v>
+      </c>
+      <c r="K98" t="n">
+        <v>16008</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>11/04/2024</t>
@@ -7230,7 +7432,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7249,10 +7451,22 @@
       <c r="G101" t="n">
         <v>0</v>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Estádio do MorumBIS (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>77011</v>
+      </c>
+      <c r="K101" t="n">
+        <v>49502</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>10/04/2024</t>
@@ -7377,7 +7591,11 @@
       <c r="G103" t="n">
         <v>1</v>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>Arena MRV (Belo Horizonte)</t>
@@ -7583,8 +7801,16 @@
       <c r="G106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rey Hilfer L. (Arg)</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
       <c r="J106" t="n">
         <v>46788</v>
       </c>
@@ -7647,9 +7873,7 @@
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>78838</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>44477</v>
       </c>
@@ -7847,10 +8071,22 @@
       <c r="G110" t="n">
         <v>2</v>
       </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Gonzalez L. (Uru)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>60540</v>
+      </c>
+      <c r="K110" t="n">
+        <v>35468</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>09/04/2024</t>
@@ -7975,10 +8211,22 @@
       <c r="G112" t="n">
         <v>4</v>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Perez Y. (Arg)</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Estádio El Teniente (Rancagua)</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>14087</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3114</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>04/04/2024</t>
@@ -8024,7 +8272,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8033,10 +8281,22 @@
       <c r="G113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K113" t="n">
+        <v>35568</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>04/04/2024</t>
@@ -8091,10 +8351,22 @@
       <c r="G114" t="n">
         <v>4</v>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico (Caracas)</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>24264</v>
+      </c>
+      <c r="K114" t="n">
+        <v>7344</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>04/04/2024</t>
@@ -8289,10 +8561,22 @@
       <c r="G117" t="n">
         <v>1</v>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>47964</v>
+      </c>
+      <c r="K117" t="n">
+        <v>20007</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>03/04/2024</t>
@@ -8347,10 +8631,22 @@
       <c r="G118" t="n">
         <v>0</v>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Estádio Monumental David Arellano (Santiago)</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>47347</v>
+      </c>
+      <c r="K118" t="n">
+        <v>32909</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>03/04/2024</t>
@@ -8475,10 +8771,22 @@
       <c r="G120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Aragon A. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Estadio Huachipato-CAP Acero (Talcahuano)</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K120" t="n">
+        <v>4188</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>03/04/2024</t>
@@ -8533,10 +8841,22 @@
       <c r="G121" t="n">
         <v>0</v>
       </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K121" t="n">
+        <v>28055</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>03/04/2024</t>
@@ -8591,10 +8911,22 @@
       <c r="G122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>80093</v>
+      </c>
+      <c r="K122" t="n">
+        <v>47086</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>02/04/2024</t>
@@ -8649,7 +8981,11 @@
       <c r="G123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>Estadio Polideportivo de Pueblo Nuevo (San Cristóbal)</t>
@@ -9139,10 +9475,22 @@
       <c r="G130" t="n">
         <v>3</v>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Estádio El Teniente (Rancagua)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>14087</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1434</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>12/03/2024</t>
@@ -9551,10 +9899,22 @@
       <c r="G136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>41575</v>
+      </c>
+      <c r="K136" t="n">
+        <v>10296</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>29/02/2024</t>
@@ -9609,10 +9969,22 @@
       <c r="G137" t="n">
         <v>3</v>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>40943</v>
+      </c>
+      <c r="K137" t="n">
+        <v>17292</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>28/02/2024</t>
@@ -9737,10 +10109,22 @@
       <c r="G139" t="n">
         <v>0</v>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Perez Y. (Arg)</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K139" t="n">
+        <v>28991</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>28/02/2024</t>
@@ -9863,7 +10247,9 @@
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>43086</v>
+      </c>
       <c r="K141" t="n">
         <v>32767</v>
       </c>
@@ -9921,19 +10307,9 @@
       <c r="G142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>de Vivar M. D. (Par)</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Estádio El Teniente (Rancagua)</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>14087</v>
-      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
         <v>1794</v>
       </c>
@@ -10407,22 +10783,10 @@
       <c r="G149" t="n">
         <v>1</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Herrera A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Estádio Municipal de El Alto (El Alto)</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K149" t="n">
-        <v>19070</v>
-      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>20/02/2024</t>
@@ -10547,19 +10911,9 @@
       <c r="G151" t="n">
         <v>0</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Anderson Daronco (Bra)</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Estadio Arsenio Erico (Assunção)</t>
-        </is>
-      </c>
-      <c r="J151" t="n">
-        <v>4434</v>
-      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -10685,14 +11039,10 @@
       <c r="G153" t="n">
         <v>1</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>César Benítez (Par)</t>
-        </is>
-      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Estadio Centenario (Montevidéu)</t>
+          <t xml:space="preserve"> (Montevidéu)</t>
         </is>
       </c>
       <c r="J153" t="n">
@@ -10832,9 +11182,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>7978</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>07/02/2024</t>
